--- a/data_analysis/multi_omics/k_means/cluster_4/cluster4.xlsx
+++ b/data_analysis/multi_omics/k_means/cluster_4/cluster4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>variable_id</t>
   </si>
@@ -23,58 +23,139 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>M10.93_519.3316n</t>
-  </si>
-  <si>
-    <t>M10.01_439.2696n</t>
-  </si>
-  <si>
-    <t>M10.86_500.2779m.z</t>
-  </si>
-  <si>
-    <t>M10.01_453.2852n</t>
-  </si>
-  <si>
-    <t>M10.93_104.1069m.z</t>
-  </si>
-  <si>
-    <t>M8.93_135.0298m.z</t>
-  </si>
-  <si>
-    <t>M5.82_478.2934m.z</t>
-  </si>
-  <si>
-    <t>M9.86_495.2960m.z</t>
-  </si>
-  <si>
-    <t>M9.00_330.2405n</t>
-  </si>
-  <si>
-    <t>M10.84_476.2778m.z</t>
-  </si>
-  <si>
-    <t>M6.26_266.1384m.z</t>
-  </si>
-  <si>
-    <t>M11.28_478.2933m.z</t>
-  </si>
-  <si>
-    <t>M11.88_437.3268m.z</t>
-  </si>
-  <si>
-    <t>M6.45_218.1183m.z</t>
-  </si>
-  <si>
-    <t>M11.92_203.0672m.z</t>
-  </si>
-  <si>
-    <t>M10.60_205.1181m.z</t>
-  </si>
-  <si>
-    <t>M6.08_289.0718m.z</t>
-  </si>
-  <si>
-    <t>M5.89_152.0704m.z</t>
+    <t>PAI.1.SERPIN.E</t>
+  </si>
+  <si>
+    <t>M10.44_211.1703m.z</t>
+  </si>
+  <si>
+    <t>M11.92_303.2327m.z</t>
+  </si>
+  <si>
+    <t>M9.33_150.0228m.z</t>
+  </si>
+  <si>
+    <t>M9.99_198.1619n</t>
+  </si>
+  <si>
+    <t>M12.50_305.2484m.z</t>
+  </si>
+  <si>
+    <t>M10.82_319.2293m.z</t>
+  </si>
+  <si>
+    <t>M9.65_195.1390m.z</t>
+  </si>
+  <si>
+    <t>M8.96_169.1233m.z</t>
+  </si>
+  <si>
+    <t>M12.35_329.2485m.z</t>
+  </si>
+  <si>
+    <t>M10.38_223.1702m.z</t>
+  </si>
+  <si>
+    <t>M9.46_239.1652m.z</t>
+  </si>
+  <si>
+    <t>M13.20_331.2641m.z</t>
+  </si>
+  <si>
+    <t>M11.91_327.2327m.z</t>
+  </si>
+  <si>
+    <t>M10.78_249.1859m.z</t>
+  </si>
+  <si>
+    <t>M11.55_299.1950m.z</t>
+  </si>
+  <si>
+    <t>M11.04_251.2016m.z</t>
+  </si>
+  <si>
+    <t>M10.81_225.1859m.z</t>
+  </si>
+  <si>
+    <t>M8.80_213.1496m.z</t>
+  </si>
+  <si>
+    <t>M9.96_241.1808m.z</t>
+  </si>
+  <si>
+    <t>M11.91_409.2356m.z</t>
+  </si>
+  <si>
+    <t>M11.96_280.2398n</t>
+  </si>
+  <si>
+    <t>M11.54_253.2171m.z</t>
+  </si>
+  <si>
+    <t>M11.19_321.2433m.z</t>
+  </si>
+  <si>
+    <t>M13.56_307.2641m.z</t>
+  </si>
+  <si>
+    <t>M12.87_282.2555n</t>
+  </si>
+  <si>
+    <t>M3.82_259.1776n</t>
+  </si>
+  <si>
+    <t>M7.74_313.1197m.z</t>
+  </si>
+  <si>
+    <t>M7.44_315.2402n</t>
+  </si>
+  <si>
+    <t>M5.51_344.2792m.z</t>
+  </si>
+  <si>
+    <t>M10.21_267.1965m.z</t>
+  </si>
+  <si>
+    <t>M4.66_151.0260m.z</t>
+  </si>
+  <si>
+    <t>M11.15_351.2537m.z</t>
+  </si>
+  <si>
+    <t>M10.52_237.1860m.z</t>
+  </si>
+  <si>
+    <t>M12.88_491.2321m.z</t>
+  </si>
+  <si>
+    <t>M10.61_528.1771m.z</t>
+  </si>
+  <si>
+    <t>M11.01_290.1599m.z</t>
+  </si>
+  <si>
+    <t>M5.87_412.3054m.z</t>
+  </si>
+  <si>
+    <t>M0.96_309.2795m.z</t>
+  </si>
+  <si>
+    <t>M5.45_368.2792m.z</t>
+  </si>
+  <si>
+    <t>M5.76_287.2094n</t>
+  </si>
+  <si>
+    <t>M5.41_370.2948m.z</t>
+  </si>
+  <si>
+    <t>M8.28_167.1076m.z</t>
+  </si>
+  <si>
+    <t>M5.51_342.2636m.z</t>
+  </si>
+  <si>
+    <t>M6.16_159.1025m.z</t>
   </si>
 </sst>
 </file>
@@ -141,7 +222,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7795833608532694</v>
+        <v>0.682878712320298</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -152,7 +233,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7827828102090592</v>
+        <v>0.7167830095880514</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -163,7 +244,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5658839197769888</v>
+        <v>0.871627267844275</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
@@ -174,7 +255,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.785981733574816</v>
+        <v>0.5800037691463241</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -185,7 +266,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6816364217898077</v>
+        <v>0.8919552044544947</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -196,7 +277,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7887660043080427</v>
+        <v>0.8108350310202047</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -207,7 +288,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7370335437506931</v>
+        <v>0.8698416224624956</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -218,7 +299,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5236923153737942</v>
+        <v>0.731460556367624</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -229,7 +310,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6406171480210037</v>
+        <v>0.8737248831353163</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -240,7 +321,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.547133984599689</v>
+        <v>0.7889770348577991</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -251,7 +332,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5074074139417514</v>
+        <v>0.857781458325351</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -262,7 +343,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6575149426475528</v>
+        <v>0.8019686151082079</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -273,7 +354,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5843840094078627</v>
+        <v>0.8177061188093948</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -284,7 +365,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5106408980796064</v>
+        <v>0.6737465543619577</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -295,7 +376,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>0.567255645440132</v>
+        <v>0.8580475644462288</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -306,7 +387,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6583525472807982</v>
+        <v>0.5625185880516327</v>
       </c>
       <c r="C17" t="n">
         <v>4.0</v>
@@ -317,7 +398,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5094161689998778</v>
+        <v>0.7432292162947047</v>
       </c>
       <c r="C18" t="n">
         <v>4.0</v>
@@ -328,9 +409,306 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6325962766828435</v>
+        <v>0.8654931531231296</v>
       </c>
       <c r="C19" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.730455774109203</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6877798349282942</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6544369689963117</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7045737836396558</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5391907286277672</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7830118156838536</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.924954780129006</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7851502755534517</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6923384784239405</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5094635199311287</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.60500824679066</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6431625399198428</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.6783273768536874</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5368110706435447</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5506325156717375</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6079982718024476</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8339857770696436</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6959613324120223</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.608211237392001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.7646419329913453</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.768579335656511</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6411148800984108</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5987393919173604</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.6538623628791778</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.624684139842788</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5942478547247729</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5516667328738856</v>
+      </c>
+      <c r="C46" t="n">
         <v>4.0</v>
       </c>
     </row>
